--- a/medicine/Mort/Nécropole_nationale_de_Méry-la-Bataille/Nécropole_nationale_de_Méry-la-Bataille.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Méry-la-Bataille/Nécropole_nationale_de_Méry-la-Bataille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_M%C3%A9ry-la-Bataille</t>
+          <t>Nécropole_nationale_de_Méry-la-Bataille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Méry-la-Bataille est un cimetière militaire  de la Première Guerre mondiale situé sur le territoire de la commune de Méry-la-Bataille dans le département de l'Oise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_M%C3%A9ry-la-Bataille</t>
+          <t>Nécropole_nationale_de_Méry-la-Bataille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Méry-la-Bataille a été créée en 1919. La majorité des corps qui y sont inhumés sont ceux de soldats français tués au cours de la bataille du Matz de juin 1918.
-De 1919 à 1921 puis en 1934-1935, on a transféré dans la nécropole de Méry, des dépouilles de soldats provenant des cimetières de  Courcelles-Epayelles, Léglantiers, Méry, Montiers, Moyenneville, Rollot, Rouvillers, Rouvroy-les-Merles et Wacquemoulin[1].
+De 1919 à 1921 puis en 1934-1935, on a transféré dans la nécropole de Méry, des dépouilles de soldats provenant des cimetières de  Courcelles-Epayelles, Léglantiers, Méry, Montiers, Moyenneville, Rollot, Rouvillers, Rouvroy-les-Merles et Wacquemoulin.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_M%C3%A9ry-la-Bataille</t>
+          <t>Nécropole_nationale_de_Méry-la-Bataille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale a une superficie de 0,62 ha et rassemble 1 539 dépouilles de soldats français, 1 285 en tombes individuelles et 254 en ossuaire  [2]. Le corps d'un soldat français de la Seconde Guerre mondiale repose également dans ce cimetière[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale a une superficie de 0,62 ha et rassemble 1 539 dépouilles de soldats français, 1 285 en tombes individuelles et 254 en ossuaire  . Le corps d'un soldat français de la Seconde Guerre mondiale repose également dans ce cimetière.
 Une stèle à la mémoire des combattants de l'artillerie spéciale française en juin 1918 a été érigée dans l'enceinte de la nécropole.
 </t>
         </is>
